--- a/data/financial_statements/soci/MKTX.xlsx
+++ b/data/financial_statements/soci/MKTX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,1245 +596,1275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>177902000</v>
+      </c>
+      <c r="C2">
         <v>172112000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>182229000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>186057000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>165060000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>162093000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>176334000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>195464000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>171346000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>164006000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>184795000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>168978000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>129774000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>131597000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>125490000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>124491000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>112444000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>101443000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>106964000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>114714000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>98560000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>95584000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>96314000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>102964000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>92247000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>90271000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>96639000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>88573000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>76644000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>74192000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>75491000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>76771000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>70167000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>64245000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>64964000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>63398000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>60442000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>61133000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>63507000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>53651000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.07779999999999999</v>
+      </c>
+      <c r="C3">
         <v>0.0618</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0334</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0481</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.0367</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0117</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0458</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1567</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3203</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2463</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.4726</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.3574</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1541</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2973</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1732</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0852</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1409</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0613</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1106</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1141</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0684</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0589</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0034</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1625</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.2036</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.2167</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.2801</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.1537</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.09229999999999999</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.1548</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.162</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.2109</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1609</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0509</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0229</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.1817</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.3468</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.3175</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.3007</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0575</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>177902000</v>
+      </c>
+      <c r="C4">
         <v>172112000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>182229000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>186057000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>165060000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>162093000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>176334000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>195464000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>171346000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>164006000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>184795000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>168978000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>129774000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>131597000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>125490000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>124491000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>112444000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>101443000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>106964000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>114714000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>98560000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>95584000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>96314000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>102964000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>92247000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>90271000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>96639000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>88573000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>76644000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>74192000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>75491000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>76771000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>70167000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>64245000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>64964000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>63398000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>60442000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>61133000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>63507000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>53651000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>79885000</v>
+      </c>
+      <c r="C5">
         <v>76288000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>77938000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>78204000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>74133000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>70857000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>71688000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>75517000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>64060000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>62329000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>66642000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>64312000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>57848000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>56150000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>55658000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>52643000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>50374000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>47098000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>47128000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>47547000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>43038000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>42890000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>41022000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>41786000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>37939000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>38557000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>39595000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>37756000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>31660000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>34197000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>33829000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>33657000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>32253000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>31495000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>31542000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>31569000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>31671000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>31285000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>27680000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>26694000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>77673000</v>
+      </c>
+      <c r="C6">
         <v>76311000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>84788000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>88104000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>72581000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>74003000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>87177000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>103474000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>91697000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>87807000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>104135000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>91089000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>60851000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>65965000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>60877000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>63189000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>53965000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>46412000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>52034000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>60173000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>48837000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>46635000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>48985000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>55158000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>48710000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>46354000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>50551000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>44370000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>36986000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>35353000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>37059000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>38502000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>33489000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>28268000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>29071000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>27708000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>24799000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>26388000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>31422000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>24671000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>52000</v>
+      </c>
+      <c r="C7">
         <v>138000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>337000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>173000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>314000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>171000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>191000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>96000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1046000</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1767000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1755000</v>
+      </c>
+      <c r="C8">
         <v>2552000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4790000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2315000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1006000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>491000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-1124000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1673000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-1408000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>158000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>268000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>613000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1106000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1373000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2032000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2031000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2101000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1385000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1176000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>840000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>534000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>582000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>588000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>449000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>79428000</v>
+      </c>
+      <c r="C9">
         <v>78863000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>89578000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>90419000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>71575000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>74494000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>86053000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>101801000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>90289000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>87965000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>104403000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>91702000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>61957000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>67338000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>62909000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>65220000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>56066000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>47797000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>53210000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>61013000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>49371000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>47217000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>49573000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>55607000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>50327000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>46354000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>50551000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>44370000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>36986000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>35353000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>37059000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>38502000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>33489000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>28268000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>29071000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>27708000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>24799000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>26388000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>31422000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>24671000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>20202000</v>
+      </c>
+      <c r="C10">
         <v>19556000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>22656000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>25650000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>19390000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16536000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>18765000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>21344000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17358000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>20189000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>20549000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>16886000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>11684000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>13336000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14804000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>12698000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>10235000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>9203000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>12723000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>13073000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>15898000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>13087000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>11550000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>13144000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>17162000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>15436000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>17425000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>15407000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>12495000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>12638000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>12821000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>13909000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>11853000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>10764000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>10880000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>10233000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>9329000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>8129000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>12133000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>9126000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>59226000</v>
+      </c>
+      <c r="C11">
         <v>59307000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>66922000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>64769000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>52185000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>57958000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>67288000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>80457000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>72931000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>67776000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>83854000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>74816000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>50273000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>54002000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>48105000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>52522000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>45831000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>38594000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>40487000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>47940000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>33473000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>34130000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>38023000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>42463000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>33165000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>30918000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>33126000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>28963000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>24491000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>22715000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>24238000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>24593000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>21636000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>17504000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>18191000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>17475000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>15470000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>18259000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>19289000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>15545000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="U12">
         <v>0</v>
       </c>
       <c r="W12">
@@ -1729,635 +1873,647 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="Y12">
         <v>0</v>
       </c>
-      <c r="AE12">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AI12">
+      <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AL12">
+      <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>59226000</v>
+      </c>
+      <c r="C13">
         <v>59307000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>66922000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>64769000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>52185000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>57958000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>67288000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>80457000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>72931000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>67776000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>83854000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>74816000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>50273000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>54002000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>48105000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>52522000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>45831000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>38594000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>40487000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>47940000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>33473000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>34130000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>38023000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>42463000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>33165000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>30918000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>33126000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>28963000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>24491000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>22715000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>24238000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>24593000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>21636000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>17504000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>18191000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>17475000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>23134000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>18213000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>19343000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>15326000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>1.58</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.78</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.73</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.39</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.54</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.79</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.15</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.95</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.81</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.25</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2.01</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.35</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.46</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.3</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.42</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.24</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.04</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.1</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.91</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.93</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.03</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.15</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.9</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.84</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.9</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.79</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.67</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.62</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.66</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>0.67</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.59</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>0.47</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.49</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.47</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>0.63</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.49</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>0.52</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1.58</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.78</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.71</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.37</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.52</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.77</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.11</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.91</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.78</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.96</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.32</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.42</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.27</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.39</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.21</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.02</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.07</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.27</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.88</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.9</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.11</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.88</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.82</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.88</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.77</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.65</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.6</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.64</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.65</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.57</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.46</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.48</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.46</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.61</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.48</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.51</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>37480000</v>
+      </c>
+      <c r="C16">
         <v>37479000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>37529000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>37384000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>37508000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>37529000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>37508000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>37470000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>37359000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>37386000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>37340000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>37303000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>37083000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>37066000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>37049000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>37043000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>36958000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>36951000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>36950000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>36954000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>36864000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>36865000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>36853000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>36850000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>36844000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>36889000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>36876000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>36775000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>36690000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>36681000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>36699000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>36706000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>36930000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>36856000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>37015000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>37121000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>36886000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>36919000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>36868000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>36774000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>37573000</v>
+      </c>
+      <c r="C17">
         <v>37567000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>37608000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>37824000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>38097000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>38084000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>38104000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>38155000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>38144000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>38160000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>38153000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>38075000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>37956000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>37995000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>37910000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>37832000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>37855000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>37828000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>37862000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>37886000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>38038000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>38019000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>38077000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>38112000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>37738000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>37792000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>37748000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>37671000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>37637000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>37643000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>37642000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>37626000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>37889000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>37805000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>37942000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>38096000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>37888000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>37965000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>37819000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>37673000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2476,1763 +2632,1802 @@
       <c r="AN18">
         <v>1</v>
       </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.4366</v>
+      </c>
+      <c r="C19">
         <v>0.4434</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.4653</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4735</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.4397</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.4565</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.4944</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.5294</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.5352</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.5354</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.5635</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.5391</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.4689</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.5013</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.4851</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.5076000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.4799</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.4575</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.4865</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.5245</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.4955</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.4879</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.5086000000000001</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.5357</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.528</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.5135</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.5231</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.5009</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.4826</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.4765</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.4909</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.5014999999999999</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.4773</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.44</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.4475</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.437</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.4103</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.4316</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.4948</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.4598</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.4465</v>
+      </c>
+      <c r="C20">
         <v>0.4582</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.4916</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.486</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4336</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.4596</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.488</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5208</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.5269</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.5364</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.5649999999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.5427</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.4774</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.5117</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.5013</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.5239</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.4986</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.4712</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.4975</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.5319</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.5009</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.494</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.5147</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.5401</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.5456</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.5135</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.5231</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.5009</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.4826</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.4765</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.4909</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.5014999999999999</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.4773</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.44</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.4475</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.437</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.4103</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.4316</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.4948</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.4598</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.3329</v>
+      </c>
+      <c r="C21">
         <v>0.3446</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3672</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3481</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3162</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3576</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3816</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4116</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4256</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.4133</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.4538</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.4428</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3874</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.4104</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3833</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.4219</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.4076</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3805</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3785</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.4179</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3396</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3571</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3948</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.4124</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3595</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3425</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3428</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.327</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.3195</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3062</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.3211</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3203</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3084</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2725</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.28</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2756</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3827</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2979</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3046</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2857</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>92846000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>101431000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>104874000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>88932000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>89654000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>101978000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>116917000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>103985000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>98660000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>114120000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>100801000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>70072000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>74134000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>68766000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>70562000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>59813000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>52585000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>57824000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>65442000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>54045000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>51218000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>53775000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>59851000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>53002000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>50679000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>55091000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>49051000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>41671000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>39995000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>41662000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>43114000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>37914000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>32750000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>33422000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>31829000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>28545000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>29947000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>34599000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>27240000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>77673000</v>
+      </c>
+      <c r="C23">
         <v>76311000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>84788000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>88104000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>72581000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>74003000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>87177000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>103474000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>91697000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>87807000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>104135000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>91089000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>60851000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>65965000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>60877000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>63189000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>53965000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>46412000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>52034000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>60173000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>48837000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>46635000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>48985000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>55158000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>48710000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>46354000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>50551000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>44370000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>36986000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>35353000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>37059000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>38502000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>33489000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>28268000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>29071000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>27708000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>24799000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>26388000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>31422000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>24671000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>59226000</v>
+      </c>
+      <c r="C24">
         <v>59307000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>66922000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>64769000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>52185000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>57958000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>67288000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>80457000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>72931000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>67776000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>83854000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>74816000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>50273000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>54002000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>48105000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>52522000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>45831000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>38594000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>40487000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>47940000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>33473000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>34130000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>38023000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>42463000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>33165000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>30918000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>33126000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>28963000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>24491000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>22715000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>24238000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>24593000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>21636000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>17504000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>18191000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>17475000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>15470000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>18259000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>19289000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>15545000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL25">
         <v>7664000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-46000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>54000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-219000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>59226000</v>
+      </c>
+      <c r="C26">
         <v>59307000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>66922000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>64769000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>52185000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>57958000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>67288000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>80457000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>72931000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>67776000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>83854000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>74816000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>50273000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>54002000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>48105000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>52522000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>45831000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>38594000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>40487000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>47940000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>33473000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>34130000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>38023000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>42463000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>33165000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>30918000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>33126000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>28963000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>24491000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>22715000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>24238000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>24593000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>21636000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>17504000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>18191000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>17475000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>23134000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>18213000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>19343000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>15326000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.5802</v>
+      </c>
+      <c r="C27">
         <v>1.5824</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.7832</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.7325</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.39</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.5444</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.794</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.1472</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.9493</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.8129</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2.2457</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.0056</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.3523</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.4569</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.2984</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.4179</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.2395</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.0445</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.0957</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.2973</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.9073</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.9258</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.0317</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.1523</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.9005</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.8381</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.8983</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.7876</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.6677999999999999</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.6193</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.6605</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.67</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.5885</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.4749</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.4914</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.4708</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.43</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.49</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.52</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.5763</v>
+      </c>
+      <c r="C28">
         <v>1.5787</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.7795</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.7124</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.3728</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.5218</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.7659</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.1087</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.9097</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.7761</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2.1978</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.965</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.3199</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.4213</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.2689</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.3883</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.2112</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.0203</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.0693</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.2654</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.8827</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.8977000000000001</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.9986</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1.1142</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.8789</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.8181</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.8776</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.7688</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.6506999999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.6034</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.6439</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.6536</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.5732</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.463</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.4794</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.4587</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.41</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.48</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.51</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL29">
         <v>0.2056</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-0.0012</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.0014</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-0.0058</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL30">
         <v>0.2057</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-0.0012</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.0015</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-0.006</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.5802</v>
+      </c>
+      <c r="C31">
         <v>1.5824</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.7832</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.7325</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.39</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.5444</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.794</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.1472</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.9493</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.8129</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2.2457</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.0056</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.3523</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.4569</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.2984</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.4179</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.2395</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.0445</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.0957</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.2973</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.9073</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.9258</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.0317</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.1523</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.9005</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.8381</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.8983</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.7876</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.6677999999999999</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.6193</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.6605</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.67</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.5885</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.4749</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.4914</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.4708</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.6261</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.4933</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.5247000000000001</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.4168</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>1.5763</v>
+      </c>
+      <c r="C32">
         <v>1.5787</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.7795</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.7124</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.3728</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.5218</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.7659</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.1087</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.9097</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.7761</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2.1978</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1.965</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.3199</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1.4213</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.2689</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.3883</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.2112</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1.0203</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.0693</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1.2654</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.8827</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.8977000000000001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.9986</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1.1142</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.8789</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.8181</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.8776</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.7688</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.6506999999999999</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.6034</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.6439</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.6536</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.5732</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.463</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.4794</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.4587</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.6083</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.4797</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.5115</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.4068</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>37567000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>37608000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>37824000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>38046000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>38084000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>38104000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>38155000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>38188000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>38160000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>38153000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>38075000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>38091000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>37995000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>37910000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>37832000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>37845000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>37828000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>37862000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>37886000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>37943000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>38019000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>38077000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>38112000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>37742000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>37792000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>37748000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>37671000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>37638000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>37643000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>37642000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>37626000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>37711000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>37805000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>37942000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>38096000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>38093000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>37965000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>37819000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>37673000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.5395</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.5566</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5637</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.5387999999999999</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.5531</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.5783</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5982</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.6069</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.6016</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.6175</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.5965</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.54</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.5633</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.548</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.5668</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.5319</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.5184</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.5406</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.5705</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.5483</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.5358000000000001</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.5583</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.5813</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.5746</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.5614</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.5701000000000001</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.5538</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.5437</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.5391</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.5518999999999999</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.5616</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.5403</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.5098</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.5145</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.5021</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.4723</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.4899</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.5448</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.5077</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>0.4944</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.5138</v>
+        <v>0.4942</v>
       </c>
       <c r="D35">
-        <v>-0.1275</v>
+        <v>0.514</v>
       </c>
       <c r="E35">
-        <v>0.8828</v>
+        <v>-0.1172</v>
       </c>
       <c r="F35">
-        <v>0.3875</v>
+        <v>0.8953</v>
       </c>
       <c r="G35">
+        <v>0.3971</v>
+      </c>
+      <c r="H35">
         <v>0.5485</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.1185</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1.3284</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-0.2948</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.5674</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.7123</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.6869</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.5144</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.5557</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.3162</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.6235000000000001</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.6703</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.5084</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.2741</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.4713</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.5489000000000001</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.4005</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.2967</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.6136</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.5897</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.3378</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-0.5955</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.6284999999999999</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.4818</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.4048</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.1307</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.5895</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.5008</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.4043</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.1601</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.3896</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.6065</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.3145</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.1916</v>
       </c>
     </row>
